--- a/ResultadoEleicoesDistritos/LISBOA_LISBOA.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_LISBOA.xlsx
@@ -597,64 +597,64 @@
         <v>139631</v>
       </c>
       <c r="H2" t="n">
-        <v>5239</v>
+        <v>5130</v>
       </c>
       <c r="I2" t="n">
-        <v>13803</v>
+        <v>13933</v>
       </c>
       <c r="J2" t="n">
-        <v>57677</v>
+        <v>57860</v>
       </c>
       <c r="K2" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L2" t="n">
-        <v>15811</v>
+        <v>15635</v>
       </c>
       <c r="M2" t="n">
-        <v>969</v>
+        <v>983</v>
       </c>
       <c r="N2" t="n">
-        <v>9942</v>
+        <v>9987</v>
       </c>
       <c r="O2" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P2" t="n">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="Q2" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R2" t="n">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="S2" t="n">
-        <v>6335</v>
+        <v>6130</v>
       </c>
       <c r="T2" t="n">
-        <v>10000</v>
+        <v>10207</v>
       </c>
       <c r="U2" t="n">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="V2" t="n">
-        <v>89320</v>
+        <v>89185</v>
       </c>
       <c r="W2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="X2" t="n">
-        <v>89302</v>
+        <v>89213</v>
       </c>
       <c r="Y2" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="Z2" t="n">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="AA2" t="n">
-        <v>543</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
